--- a/Table.xlsx
+++ b/Table.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Вопросы" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Регистрация пользователя</t>
   </si>
@@ -46,6 +47,66 @@
   </si>
   <si>
     <t>Добавить в бд транзакцию</t>
+  </si>
+  <si>
+    <t>Проверка данных</t>
+  </si>
+  <si>
+    <t>Данные верны ?</t>
+  </si>
+  <si>
+    <t>Проверяем админ ли он ?</t>
+  </si>
+  <si>
+    <t>Если не верны</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Данные верны</t>
+  </si>
+  <si>
+    <t>Если он админ</t>
+  </si>
+  <si>
+    <t>Если он не админ</t>
+  </si>
+  <si>
+    <t>Админ панель</t>
+  </si>
+  <si>
+    <t>Главная страница</t>
+  </si>
+  <si>
+    <t>Как сделать return View() на другой контроллер</t>
+  </si>
+  <si>
+    <t>Вход</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Все поля заполнены верно ?</t>
+  </si>
+  <si>
+    <t>Если да</t>
+  </si>
+  <si>
+    <t>Если нет</t>
+  </si>
+  <si>
+    <t>Удалить товар</t>
+  </si>
+  <si>
+    <t>Оплатить товар из корзины</t>
+  </si>
+  <si>
+    <t>щ</t>
+  </si>
+  <si>
+    <t>Все данные введены верно ?</t>
   </si>
 </sst>
 </file>
@@ -359,6 +420,1275 @@
         <a:xfrm>
           <a:off x="2200275" y="3476625"/>
           <a:ext cx="285750" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Прямая со стрелкой 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8896350" y="866775"/>
+          <a:ext cx="19050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Прямая со стрелкой 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9039225" y="1533525"/>
+          <a:ext cx="9525" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Прямая со стрелкой 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8448675" y="2152650"/>
+          <a:ext cx="371475" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая со стрелкой 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7905751" y="419100"/>
+          <a:ext cx="485774" cy="1866901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601075" y="409575"/>
+          <a:ext cx="161925" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Прямая со стрелкой 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="2133600"/>
+          <a:ext cx="619125" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая со стрелкой 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="2524125"/>
+          <a:ext cx="0" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9753600" y="3486150"/>
+          <a:ext cx="647700" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Прямая со стрелкой 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534776" y="3505200"/>
+          <a:ext cx="514349" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая со стрелкой 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9744075" y="4067175"/>
+          <a:ext cx="66675" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Прямая со стрелкой 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12163425" y="4114800"/>
+          <a:ext cx="171451" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="304800"/>
+          <a:ext cx="342900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Прямая со стрелкой 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="342900"/>
+          <a:ext cx="238125" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Прямая со стрелкой 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10991850" y="609600"/>
+          <a:ext cx="85725" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Прямая со стрелкой 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12420600" y="333375"/>
+          <a:ext cx="419100" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Прямая со стрелкой 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10267950" y="228600"/>
+          <a:ext cx="2686051" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Прямая со стрелкой 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8867775" y="428625"/>
+          <a:ext cx="1733550" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Прямая со стрелкой 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8439150" y="4495800"/>
+          <a:ext cx="809625" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Прямая со стрелкой 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9505950" y="4610100"/>
+          <a:ext cx="161925" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Прямая со стрелкой 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12506325" y="4667250"/>
+          <a:ext cx="47625" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Прямая со стрелкой 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13258800" y="4505325"/>
+          <a:ext cx="552450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Прямая со стрелкой 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6677026" y="4629150"/>
+          <a:ext cx="638174" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Прямая со стрелкой 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6343650" y="3886200"/>
+          <a:ext cx="285750" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Прямая со стрелкой 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="5067300"/>
+          <a:ext cx="542925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Прямая со стрелкой 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162800" y="3733800"/>
+          <a:ext cx="2038350" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Прямая со стрелкой 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7524750" y="4600576"/>
+          <a:ext cx="161925" cy="676274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Прямая со стрелкой 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9791700" y="4600575"/>
+          <a:ext cx="161925" cy="676274"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -650,38 +1980,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H6:AA21"/>
+  <dimension ref="H2:DR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="8:69" x14ac:dyDescent="0.25">
+      <c r="AS2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="8:69" x14ac:dyDescent="0.25">
+      <c r="BD3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="8:69" x14ac:dyDescent="0.25">
+      <c r="AT4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="8:69" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>1</v>
       </c>
+      <c r="BE6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="8:69" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="8:69" x14ac:dyDescent="0.25">
+      <c r="AT8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="8:69" x14ac:dyDescent="0.25">
       <c r="U9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="8:69" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
         <v>2</v>
       </c>
       <c r="Y11" t="s">
         <v>3</v>
       </c>
+      <c r="AT11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:69" x14ac:dyDescent="0.25">
+      <c r="AO13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="8:69" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>5</v>
       </c>
@@ -689,18 +2059,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:74" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>6</v>
       </c>
+      <c r="BC18" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:74" x14ac:dyDescent="0.25">
+      <c r="AI20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="10:74" x14ac:dyDescent="0.25">
       <c r="N21" t="s">
         <v>8</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="10:74" x14ac:dyDescent="0.25">
+      <c r="AM24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="10:74" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="10:74" x14ac:dyDescent="0.25">
+      <c r="AL29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>25</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="122:122" x14ac:dyDescent="0.25">
+      <c r="DR34" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>